--- a/biology/Zoologie/Couscous_commun_du_Sud/Couscous_commun_du_Sud.xlsx
+++ b/biology/Zoologie/Couscous_commun_du_Sud/Couscous_commun_du_Sud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phalanger mimicus
-Le Couscous commun du Sud[1] (Phalanger mimicus) est une espèce de marsupiaux de la famille des Phalangeridae.
+Le Couscous commun du Sud (Phalanger mimicus) est une espèce de marsupiaux de la famille des Phalangeridae.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre en Nouvelle-Guinée et dans la péninsule du cap York au Queensland en Australie.
 </t>
@@ -543,7 +557,9 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Selon MSW :
 sous-espèce Phalanger mimicus mimicus Thomas, 1922
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Thomas, 1922 : Two new subspecies of Phalanger orientalis. Ann. Mag. Nat. Hist. ser. 9, vol. 9, p. 680–681.</t>
         </is>
